--- a/documentation/bom/MS20-VCF-bom.xlsx
+++ b/documentation/bom/MS20-VCF-bom.xlsx
@@ -344,7 +344,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-01-12_20-03-49</t>
+    <t>2023-01-12_20-09-06</t>
   </si>
   <si>
     <t>KiCad Version:</t>

--- a/documentation/bom/MS20-VCF-bom.xlsx
+++ b/documentation/bom/MS20-VCF-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="131">
   <si>
     <t>Row</t>
   </si>
@@ -284,7 +284,7 @@
     <t>21</t>
   </si>
   <si>
-    <t>ResLv1 ResVol1 ResVol2</t>
+    <t>ResLv1 ResLv2 ResVol1 ResVol2</t>
   </si>
   <si>
     <t>10k</t>
@@ -296,60 +296,51 @@
     <t>22</t>
   </si>
   <si>
-    <t>ResLv2</t>
-  </si>
-  <si>
-    <t>3.3k</t>
+    <t>Switch, single pole double throw</t>
+  </si>
+  <si>
+    <t>SW2</t>
+  </si>
+  <si>
+    <t>Bandpass</t>
+  </si>
+  <si>
+    <t>SW_Toggle_Blue_wSlots</t>
   </si>
   <si>
     <t>23</t>
   </si>
   <si>
-    <t>Switch, single pole double throw</t>
-  </si>
-  <si>
-    <t>SW2</t>
-  </si>
-  <si>
-    <t>Bandpass</t>
-  </si>
-  <si>
-    <t>SW_Toggle_Blue_wSlots</t>
+    <t>Momentary Switch, dual pole double throw</t>
+  </si>
+  <si>
+    <t>SW1 SW3</t>
+  </si>
+  <si>
+    <t>Hpass/Lpass Switch</t>
+  </si>
+  <si>
+    <t>SW_DPDT_Toggle</t>
   </si>
   <si>
     <t>24</t>
   </si>
   <si>
-    <t>Momentary Switch, dual pole double throw</t>
-  </si>
-  <si>
-    <t>SW1 SW3</t>
-  </si>
-  <si>
-    <t>Hpass/Lpass Switch</t>
-  </si>
-  <si>
-    <t>SW_DPDT_Toggle</t>
+    <t>Dual Operational Transconductance Amplifiers with Linearizing Diodes and Buffers, DIP-16/SOIC-16</t>
+  </si>
+  <si>
+    <t>U1 U3</t>
+  </si>
+  <si>
+    <t>LM13700</t>
+  </si>
+  <si>
+    <t>SOIC-16_3.9x9.9mm_P1.27mm</t>
   </si>
   <si>
     <t>25</t>
   </si>
   <si>
-    <t>Dual Operational Transconductance Amplifiers with Linearizing Diodes and Buffers, DIP-16/SOIC-16</t>
-  </si>
-  <si>
-    <t>U1 U3</t>
-  </si>
-  <si>
-    <t>LM13700</t>
-  </si>
-  <si>
-    <t>SOIC-16_3.9x9.9mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
     <t>Dual Low-Noise JFET-Input Operational Amplifiers, DIP-8/SOIC-8</t>
   </si>
   <si>
@@ -383,13 +374,13 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-02-18_15-25-50</t>
+    <t>2023-03-16_20-57-29</t>
   </si>
   <si>
     <t>KiCad Version:</t>
   </si>
   <si>
-    <t>6.0.10+dfsg-1~bpo11+1</t>
+    <t>6.0.11+dfsg-1~bpo11+1</t>
   </si>
   <si>
     <t>Component Groups:</t>
@@ -864,7 +855,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -884,7 +875,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="32" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -895,55 +886,55 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D2" s="3">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
@@ -951,13 +942,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D6" s="3">
         <v>112</v>
@@ -1147,7 +1138,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30.0" customHeight="1">
+    <row r="16" spans="1:7" ht="30" customHeight="1">
       <c r="A16" s="9" t="s">
         <v>17</v>
       </c>
@@ -1170,7 +1161,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30.0" customHeight="1">
+    <row r="17" spans="1:7" ht="30" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>44</v>
       </c>
@@ -1216,7 +1207,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30.0" customHeight="1">
+    <row r="19" spans="1:7" ht="30" customHeight="1">
       <c r="A19" s="5" t="s">
         <v>53</v>
       </c>
@@ -1463,7 +1454,7 @@
         <v>90</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>13</v>
@@ -1473,17 +1464,17 @@
       <c r="A30" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B30" s="12" t="s">
-        <v>13</v>
+      <c r="B30" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>7</v>
@@ -1494,42 +1485,42 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" ht="30" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F32" s="9" t="s">
         <v>14</v>
@@ -1538,49 +1529,26 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="30.0" customHeight="1">
+    <row r="33" spans="1:7" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="30.0" customHeight="1">
-      <c r="A34" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" s="12" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1606,22 +1574,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/bom/MS20-VCF-bom.xlsx
+++ b/documentation/bom/MS20-VCF-bom.xlsx
@@ -374,13 +374,13 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-03-16_20-57-29</t>
+    <t>2023-06-10_14-10-16</t>
   </si>
   <si>
     <t>KiCad Version:</t>
   </si>
   <si>
-    <t>6.0.11+dfsg-1~bpo11+1</t>
+    <t>7.0.5.1-1-g8f565ef7f0-dirty-deb11</t>
   </si>
   <si>
     <t>Component Groups:</t>

--- a/documentation/bom/MS20-VCF-bom.xlsx
+++ b/documentation/bom/MS20-VCF-bom.xlsx
@@ -374,7 +374,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-06-10_14-10-16</t>
+    <t>2023-06-10_14-16-40</t>
   </si>
   <si>
     <t>KiCad Version:</t>
